--- a/examples/optimization/scipy/15MW_offshore_reference_data.xlsx
+++ b/examples/optimization/scipy/15MW_offshore_reference_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dbensaso\floris\examples\optimization\scipy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3290F98-812C-4082-933E-20BECE1FD675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622CA91F-D33D-4D8E-A804-B0207AC81F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CA01CDE7-FF38-4F9D-9BCF-4CFC4D0293A2}"/>
+    <workbookView xWindow="3510" yWindow="1665" windowWidth="21600" windowHeight="13230" xr2:uid="{CA01CDE7-FF38-4F9D-9BCF-4CFC4D0293A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
